--- a/TestData/bikeDetails.xlsx
+++ b/TestData/bikeDetails.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="35">
   <si>
     <t>Launch Date : Mar 2024</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>330000.0</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
